--- a/Raj Chudasama/2022-12-15/ALDFWTP Guest Services/EXPECTED ARRIVALS 12-15-22.xlsx
+++ b/Raj Chudasama/2022-12-15/ALDFWTP Guest Services/EXPECTED ARRIVALS 12-15-22.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="45">
   <si>
     <t>Guest Name</t>
   </si>
@@ -85,6 +85,9 @@
     <t>48.45</t>
   </si>
   <si>
+    <t>63.00</t>
+  </si>
+  <si>
     <t>12RMOC</t>
   </si>
   <si>
@@ -124,7 +127,7 @@
     <t>16-Dec-22</t>
   </si>
   <si>
-    <t xml:space="preserve"> 11-Dec-22</t>
+    <t>11-Dec-22</t>
   </si>
   <si>
     <t>18-May-22</t>
@@ -133,10 +136,7 @@
     <t>22-Aug-22</t>
   </si>
   <si>
-    <t xml:space="preserve"> 15-Dec-22</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 18-Nov-22</t>
+    <t>18-Nov-22</t>
   </si>
   <si>
     <t>18-Dec-22</t>
@@ -549,13 +549,13 @@
         <v>175</v>
       </c>
       <c r="F2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I2" t="s">
         <v>43</v>
@@ -572,10 +572,10 @@
         <v>135.2</v>
       </c>
       <c r="F3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H3" t="s">
         <v>41</v>
@@ -595,10 +595,10 @@
         <v>175</v>
       </c>
       <c r="F4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H4" t="s">
         <v>42</v>
@@ -618,13 +618,13 @@
         <v>133.43</v>
       </c>
       <c r="F5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I5" t="s">
         <v>43</v>
@@ -644,10 +644,10 @@
         <v>112</v>
       </c>
       <c r="F6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H6" t="s">
         <v>42</v>
@@ -667,13 +667,13 @@
         <v>167</v>
       </c>
       <c r="F7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I7" t="s">
         <v>43</v>
@@ -690,13 +690,13 @@
         <v>175</v>
       </c>
       <c r="F8" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I8" t="s">
         <v>44</v>
@@ -713,13 +713,13 @@
         <v>175</v>
       </c>
       <c r="F9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G9" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I9" t="s">
         <v>44</v>
@@ -736,13 +736,13 @@
         <v>152</v>
       </c>
       <c r="F10" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G10" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H10" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I10" t="s">
         <v>43</v>
@@ -759,13 +759,13 @@
         <v>175</v>
       </c>
       <c r="F11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G11" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H11" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I11" t="s">
         <v>43</v>
@@ -782,13 +782,13 @@
         <v>143</v>
       </c>
       <c r="F12" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G12" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H12" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I12" t="s">
         <v>43</v>
@@ -805,10 +805,10 @@
         <v>22</v>
       </c>
       <c r="F13" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G13" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="H13" t="s">
         <v>42</v>
@@ -831,10 +831,10 @@
         <v>112</v>
       </c>
       <c r="F14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G14" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H14" t="s">
         <v>42</v>
@@ -850,14 +850,17 @@
       <c r="B15" t="s">
         <v>20</v>
       </c>
+      <c r="E15" t="s">
+        <v>23</v>
+      </c>
       <c r="F15" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G15" t="s">
         <v>40</v>
       </c>
       <c r="H15" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I15" t="s">
         <v>43</v>
